--- a/testData/testdata1.xlsx
+++ b/testData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14280" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Facebook URL</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t>wawaresanjay10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,7 +433,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
